--- a/report/reliability/by-comb/Ensino Superior-Ciências Exatas e da Terra.xlsx
+++ b/report/reliability/by-comb/Ensino Superior-Ciências Exatas e da Terra.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="47">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -71,22 +71,28 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item3</t>
+  </si>
+  <si>
     <t>Item4</t>
   </si>
   <si>
     <t>Item5</t>
   </si>
   <si>
-    <t>Item3</t>
-  </si>
-  <si>
     <t>Item6</t>
   </si>
   <si>
-    <t>Item15</t>
+    <t>Item12</t>
   </si>
   <si>
     <t>Item13</t>
+  </si>
+  <si>
+    <t>Item14</t>
+  </si>
+  <si>
+    <t>Item15</t>
   </si>
   <si>
     <t>Item17</t>
@@ -95,31 +101,13 @@
     <t>Item18</t>
   </si>
   <si>
-    <t>Item14</t>
-  </si>
-  <si>
-    <t>Item12</t>
-  </si>
-  <si>
     <t>Item19</t>
   </si>
   <si>
-    <t>Item2</t>
-  </si>
-  <si>
-    <t>Item11</t>
-  </si>
-  <si>
-    <t>Item16</t>
-  </si>
-  <si>
-    <t>Item9</t>
+    <t>Item21</t>
   </si>
   <si>
     <t>Item23</t>
-  </si>
-  <si>
-    <t>Item21</t>
   </si>
   <si>
     <t>Item statistics</t>
@@ -2475,31 +2463,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.9002433295880657</v>
+        <v>0.8733526757622562</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.9027083736390532</v>
+        <v>0.8766202265365949</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.9417530007852591</v>
+        <v>0.9180953989775221</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.3530802873549685</v>
+        <v>0.35339648596423157</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>9.27837684910368</v>
+        <v>7.105056217311052</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.020692987938193966</v>
+        <v>0.026631065401719077</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.571078431372549</v>
+        <v>2.435897435897436</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.6732068335017038</v>
+        <v>0.6993339276934145</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.35862031952482754</v>
+        <v>0.3541310968845429</v>
       </c>
     </row>
     <row r="7">
@@ -2549,28 +2537,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.8915578380251736</v>
+        <v>0.8619584275710986</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.8948823010701984</v>
+        <v>0.8659417887870918</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.93229376644924</v>
+        <v>0.9063725069007345</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.34728899725070833</v>
+        <v>0.3499263228757391</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>8.513145837294319</v>
+        <v>6.459446093994378</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.022574390761510837</v>
+        <v>0.02916741982470094</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.022403354816573035</v>
+        <v>0.024275460413726482</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.3541310968845429</v>
+        <v>0.3591282437998329</v>
       </c>
     </row>
     <row r="12">
@@ -2578,28 +2566,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.8943733034757809</v>
+        <v>0.8584326214917394</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.8975109950451868</v>
+        <v>0.8633207605664374</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.9356998683112416</v>
+        <v>0.9004564348405381</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.35372190457933134</v>
+        <v>0.3448494278589589</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>8.757144197476546</v>
+        <v>6.316400092247244</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.021978008081695824</v>
+        <v>0.029942949939644182</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.02269790715610692</v>
+        <v>0.021633162888804153</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.3554851002734646</v>
+        <v>0.34146699498599803</v>
       </c>
     </row>
     <row r="13">
@@ -2607,28 +2595,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.893182943833939</v>
+        <v>0.8620397835778862</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.8960322735232858</v>
+        <v>0.8665498069720263</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.9344870729403617</v>
+        <v>0.9065397412256595</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.35007880768420346</v>
+        <v>0.35112099573901806</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>8.618369410280136</v>
+        <v>6.493432398335927</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.022231991196910484</v>
+        <v>0.02918292085143694</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.02366355420321741</v>
+        <v>0.021478525590632295</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.3607686972645545</v>
+        <v>0.34146699498599803</v>
       </c>
     </row>
     <row r="14">
@@ -2636,28 +2624,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.894060901086751</v>
+        <v>0.8629592147376562</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.8961760662785359</v>
+        <v>0.8652999179872146</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.9331807116395915</v>
+        <v>0.9040728895164202</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.35043029321981933</v>
+        <v>0.3486721213023026</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>8.631690537586172</v>
+        <v>6.423900453936492</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.02207091970691301</v>
+        <v>0.02898988694523635</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.022060199519665643</v>
+        <v>0.021383048685822244</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.35862031952482754</v>
+        <v>0.3541310968845429</v>
       </c>
     </row>
     <row r="15">
@@ -2665,28 +2653,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.8936525807500812</v>
+        <v>0.8779189162156927</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.8958304330727801</v>
+        <v>0.8806486628552581</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.9367998977576109</v>
+        <v>0.9110133177039595</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.3495864291499803</v>
+        <v>0.3807609928863103</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>8.59973271942918</v>
+        <v>7.378624185728743</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.022045180148889135</v>
+        <v>0.02561043646418559</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.024775697537104024</v>
+        <v>0.018000183905998616</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.355714545401114</v>
+        <v>0.3851274067234116</v>
       </c>
     </row>
     <row r="16">
@@ -2694,28 +2682,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.8912884584317572</v>
+        <v>0.8601295793043049</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.8933113503413793</v>
+        <v>0.862753296476115</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.9350942113951902</v>
+        <v>0.9064067640483102</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.34353771943751726</v>
+        <v>0.34376561882370094</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>8.373068299203071</v>
+        <v>6.286149498125988</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.02255881652269973</v>
+        <v>0.029449748251842555</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.02331518341826106</v>
+        <v>0.02331883826452801</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.355714545401114</v>
+        <v>0.3541310968845429</v>
       </c>
     </row>
     <row r="17">
@@ -2723,28 +2711,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.892340275326509</v>
+        <v>0.8719415879217167</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.8949862969809961</v>
+        <v>0.875977500638666</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.9340040821930998</v>
+        <v>0.9106509371030166</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.3475397521644927</v>
+        <v>0.3705100685277747</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>8.522566781775467</v>
+        <v>7.063053116568347</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.02237826368259013</v>
+        <v>0.026859400578378195</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.022259301072089104</v>
+        <v>0.021728080464607568</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.3554851002734646</v>
+        <v>0.3851274067234116</v>
       </c>
     </row>
     <row r="18">
@@ -2752,28 +2740,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.8914144427423473</v>
+        <v>0.8633616602716905</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.8939667509483763</v>
+        <v>0.8662370785147814</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.9351125479796611</v>
+        <v>0.9084219319123163</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.3450944555976209</v>
+        <v>0.35050571933863256</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>8.431004038300637</v>
+        <v>6.475913271754498</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.02272507026155049</v>
+        <v>0.028762661512408458</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.022845191555949225</v>
+        <v>0.02499802767095947</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.3533392849417615</v>
+        <v>0.3541310968845429</v>
       </c>
     </row>
     <row r="19">
@@ -2781,28 +2769,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.899834181931683</v>
+        <v>0.8609408352033276</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.9026789210710605</v>
+        <v>0.8643826621953569</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.93692384161421</v>
+        <v>0.9031789648801578</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.3669700715715133</v>
+        <v>0.34689215940036366</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>9.27526627330309</v>
+        <v>6.3736884692464715</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.020733585571227682</v>
+        <v>0.02933098574635778</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.022360024883551054</v>
+        <v>0.020586691066626608</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.3643936210157692</v>
+        <v>0.34389035090395215</v>
       </c>
     </row>
     <row r="20">
@@ -2810,28 +2798,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.9030468131146274</v>
+        <v>0.8614895112300597</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.9050633826371235</v>
+        <v>0.8642402884491495</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.9381725150987537</v>
+        <v>0.909461001124906</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.3733683953566465</v>
+        <v>0.3466171705027987</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>9.533343485134901</v>
+        <v>6.365955544369568</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.020072315882997883</v>
+        <v>0.02936229753926173</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.02042003783864282</v>
+        <v>0.022766635819306012</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.3694836187239522</v>
+        <v>0.3498837335976368</v>
       </c>
     </row>
     <row r="21">
@@ -2839,28 +2827,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.8923892339544514</v>
+        <v>0.8610898354070395</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.8951213525952535</v>
+        <v>0.8647280871537858</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.9356821200575445</v>
+        <v>0.9098082696680967</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.3478658520211247</v>
+        <v>0.3475607720432357</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>8.534829297910482</v>
+        <v>6.392517625864173</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.02229869065316924</v>
+        <v>0.029236810616282454</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.025305044532039155</v>
+        <v>0.02566352079072708</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.3519448119004136</v>
+        <v>0.34389035090395215</v>
       </c>
     </row>
     <row r="22">
@@ -2868,28 +2856,28 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.8897963309243443</v>
+        <v>0.864897544664527</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.8924254684122123</v>
+        <v>0.8682273594872516</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.9314274626234377</v>
+        <v>0.9130071029999153</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.34145214692909087</v>
+        <v>0.35445098908390105</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>8.295880588463783</v>
+        <v>6.588828728853281</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.022915081253588095</v>
+        <v>0.028545398190530404</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.02153712112542406</v>
+        <v>0.024144380714591813</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.3492170458694742</v>
+        <v>0.3541310968845429</v>
       </c>
     </row>
     <row r="23">
@@ -2897,681 +2885,645 @@
         <v>30</v>
       </c>
       <c r="B23" t="n" s="58">
-        <v>0.8907214393368981</v>
+        <v>0.8660214706196566</v>
       </c>
       <c r="C23" t="n" s="59">
-        <v>0.8927759317222748</v>
+        <v>0.8702444223120562</v>
       </c>
       <c r="D23" t="n" s="60">
-        <v>0.9342855593503033</v>
+        <v>0.9140371426770719</v>
       </c>
       <c r="E23" t="n" s="61">
-        <v>0.342274678792892</v>
+        <v>0.3585219591522736</v>
       </c>
       <c r="F23" t="n" s="62">
-        <v>8.326264299260322</v>
+        <v>6.706797794889055</v>
       </c>
       <c r="G23" t="n" s="63">
-        <v>0.022718722296944653</v>
+        <v>0.028347302855953917</v>
       </c>
       <c r="H23" t="n" s="64">
-        <v>0.022708335083232906</v>
+        <v>0.024183359716941442</v>
       </c>
       <c r="I23" t="n" s="65">
-        <v>0.3492170458694742</v>
+        <v>0.3541310968845429</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="53">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="B24" t="n" s="58">
-        <v>0.8984737101072252</v>
-      </c>
-      <c r="C24" t="n" s="59">
-        <v>0.9015078859552572</v>
-      </c>
-      <c r="D24" t="n" s="60">
-        <v>0.9391080231278492</v>
-      </c>
-      <c r="E24" t="n" s="61">
-        <v>0.36389543124181395</v>
-      </c>
-      <c r="F24" t="n" s="62">
-        <v>9.153097125580258</v>
-      </c>
-      <c r="G24" t="n" s="63">
-        <v>0.021121261018785767</v>
-      </c>
-      <c r="H24" t="n" s="64">
-        <v>0.023321464331390117</v>
-      </c>
-      <c r="I24" t="n" s="65">
-        <v>0.36308674873994107</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="53">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="B25" t="n" s="58">
-        <v>0.8980637491641281</v>
-      </c>
-      <c r="C25" t="n" s="59">
-        <v>0.9007517993688846</v>
-      </c>
-      <c r="D25" t="n" s="60">
-        <v>0.9404798933275103</v>
-      </c>
-      <c r="E25" t="n" s="61">
-        <v>0.36193332722949056</v>
-      </c>
-      <c r="F25" t="n" s="62">
-        <v>9.075749420554125</v>
-      </c>
-      <c r="G25" t="n" s="63">
-        <v>0.02121298884242664</v>
-      </c>
-      <c r="H25" t="n" s="64">
-        <v>0.023610025699977014</v>
-      </c>
-      <c r="I25" t="n" s="65">
-        <v>0.3640455963231947</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="53">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="B26" t="n" s="58">
-        <v>0.8965267800975255</v>
-      </c>
-      <c r="C26" t="n" s="59">
-        <v>0.8996815810213042</v>
-      </c>
-      <c r="D26" t="n" s="60">
-        <v>0.9389800375662987</v>
-      </c>
-      <c r="E26" t="n" s="61">
-        <v>0.3591864018051764</v>
-      </c>
-      <c r="F26" t="n" s="62">
-        <v>8.9682591709541</v>
-      </c>
-      <c r="G26" t="n" s="63">
-        <v>0.021549028675021904</v>
-      </c>
-      <c r="H26" t="n" s="64">
-        <v>0.023762754106948395</v>
-      </c>
-      <c r="I26" t="n" s="65">
-        <v>0.35862031952482754</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="53">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="B27" t="n" s="58">
-        <v>0.8971846254465218</v>
-      </c>
-      <c r="C27" t="n" s="59">
-        <v>0.8992703433603445</v>
-      </c>
-      <c r="D27" t="n" s="60">
-        <v>0.9389077399830137</v>
-      </c>
-      <c r="E27" t="n" s="61">
-        <v>0.3581402210030426</v>
-      </c>
-      <c r="F27" t="n" s="62">
-        <v>8.927562878302497</v>
-      </c>
-      <c r="G27" t="n" s="63">
-        <v>0.02133786241316174</v>
-      </c>
-      <c r="H27" t="n" s="64">
-        <v>0.023761707921946946</v>
-      </c>
-      <c r="I27" t="n" s="65">
-        <v>0.3607686972645545</v>
+      <c r="E27" t="s" s="83">
+        <v>35</v>
+      </c>
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
+        <v>9</v>
+      </c>
+      <c r="H27" t="s" s="83">
+        <v>10</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s">
-        <v>1</v>
+      <c r="A28" t="s" s="79">
+        <v>18</v>
+      </c>
+      <c r="B28" t="n" s="84">
+        <v>48.0</v>
+      </c>
+      <c r="C28" t="n" s="85">
+        <v>0.6762679032838308</v>
+      </c>
+      <c r="D28" t="n" s="86">
+        <v>0.6626768806083062</v>
+      </c>
+      <c r="E28" t="n" s="87">
+        <v>0.6402734568835402</v>
+      </c>
+      <c r="F28" t="n" s="88">
+        <v>0.5887594434322782</v>
+      </c>
+      <c r="G28" t="n" s="89">
+        <v>2.5625</v>
+      </c>
+      <c r="H28" t="n" s="90">
+        <v>1.2700519339356233</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s">
-        <v>1</v>
+      <c r="A29" t="s" s="79">
+        <v>19</v>
+      </c>
+      <c r="B29" t="n" s="84">
+        <v>48.0</v>
+      </c>
+      <c r="C29" t="n" s="85">
+        <v>0.7195599571282514</v>
+      </c>
+      <c r="D29" t="n" s="86">
+        <v>0.703271960110538</v>
+      </c>
+      <c r="E29" t="n" s="87">
+        <v>0.6971855512808754</v>
+      </c>
+      <c r="F29" t="n" s="88">
+        <v>0.6434588756537315</v>
+      </c>
+      <c r="G29" t="n" s="89">
+        <v>2.4166666666666665</v>
+      </c>
+      <c r="H29" t="n" s="90">
+        <v>1.2348371127543345</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="69">
-        <v>35</v>
+      <c r="A30" t="s" s="79">
+        <v>20</v>
+      </c>
+      <c r="B30" t="n" s="84">
+        <v>48.0</v>
+      </c>
+      <c r="C30" t="n" s="85">
+        <v>0.664331640369442</v>
+      </c>
+      <c r="D30" t="n" s="86">
+        <v>0.6531242229890976</v>
+      </c>
+      <c r="E30" t="n" s="87">
+        <v>0.6319555931576111</v>
+      </c>
+      <c r="F30" t="n" s="88">
+        <v>0.5860437453422211</v>
+      </c>
+      <c r="G30" t="n" s="89">
+        <v>2.2708333333333335</v>
+      </c>
+      <c r="H30" t="n" s="90">
+        <v>1.124950747542826</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31"/>
-      <c r="B31" t="s" s="83">
-        <v>36</v>
-      </c>
-      <c r="C31" t="s" s="83">
-        <v>37</v>
-      </c>
-      <c r="D31" t="s" s="83">
-        <v>38</v>
-      </c>
-      <c r="E31" t="s" s="83">
-        <v>39</v>
-      </c>
-      <c r="F31" t="s" s="83">
-        <v>40</v>
-      </c>
-      <c r="G31" t="s" s="83">
-        <v>9</v>
-      </c>
-      <c r="H31" t="s" s="83">
-        <v>10</v>
+      <c r="A31" t="s" s="79">
+        <v>21</v>
+      </c>
+      <c r="B31" t="n" s="84">
+        <v>48.0</v>
+      </c>
+      <c r="C31" t="n" s="85">
+        <v>0.6624834859481232</v>
+      </c>
+      <c r="D31" t="n" s="86">
+        <v>0.6727055324549955</v>
+      </c>
+      <c r="E31" t="n" s="87">
+        <v>0.6619921861032442</v>
+      </c>
+      <c r="F31" t="n" s="88">
+        <v>0.6072099016510102</v>
+      </c>
+      <c r="G31" t="n" s="89">
+        <v>1.7291666666666667</v>
+      </c>
+      <c r="H31" t="n" s="90">
+        <v>0.8183944669571632</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>48.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.7058517781899726</v>
+        <v>0.40337778686926157</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.6907722843495558</v>
+        <v>0.41612148082813283</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.6865144564960094</v>
+        <v>0.3760460458954649</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.645044644871509</v>
+        <v>0.29382476042028705</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>2.4166666666666665</v>
+        <v>3.4583333333333335</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.2348371127543345</v>
+        <v>1.1100763503228501</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>48.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.6309539175429645</v>
+        <v>0.6999433676790902</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.618165597521194</v>
+        <v>0.7119381456050408</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.601632459450233</v>
+        <v>0.6925829946073</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.5660101973805319</v>
+        <v>0.6403158471686993</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>2.2708333333333335</v>
+        <v>1.8958333333333333</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.124950747542826</v>
+        <v>0.9506903053768817</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>48.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.6717035171680937</v>
+        <v>0.48925331438706204</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.6592843610657871</v>
+        <v>0.49808833023720994</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.6474050225791548</v>
+        <v>0.4594122846596197</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.6035167192414352</v>
+        <v>0.39648020692464914</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>2.5625</v>
+        <v>3.125</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.2700519339356233</v>
+        <v>1.023656358562546</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>48.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.6501660606582017</v>
+        <v>0.642813356332907</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.6553172278699438</v>
+        <v>0.6580440005907502</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.6495652797989997</v>
+        <v>0.6294962355488722</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.605888886776297</v>
+        <v>0.5774238035160578</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>1.7291666666666667</v>
+        <v>2.0833333333333335</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>0.8183944669571632</v>
+        <v>0.9186792863702076</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>48.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.6519606502783128</v>
+        <v>0.680198469923723</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.6648417198476055</v>
+        <v>0.6869381873909999</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.642980924719363</v>
+        <v>0.6775672306547107</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.6020190106986026</v>
+        <v>0.6096385904266892</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>2.0833333333333335</v>
+        <v>2.1666666666666665</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>0.9186792863702076</v>
+        <v>1.0585685503955446</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>48.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.7226517403697086</v>
+        <v>0.6963102134611477</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.7331120600488964</v>
+        <v>0.6891370109085209</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.7207427075987817</v>
+        <v>0.6617595084726747</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.6791626285603979</v>
+        <v>0.603514152308107</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>1.8958333333333333</v>
+        <v>2.25</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>0.9506903053768817</v>
+        <v>1.391463335041911</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>48.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.6837656914339318</v>
+        <v>0.6798651135132706</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.6879420735963551</v>
+        <v>0.681591930810181</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.6799655410180715</v>
+        <v>0.6488180338697055</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.6295578168789955</v>
+        <v>0.6015753778593844</v>
       </c>
       <c r="G38" t="n" s="89">
-        <v>2.1666666666666665</v>
+        <v>2.875</v>
       </c>
       <c r="H38" t="n" s="90">
-        <v>1.0585685503955446</v>
+        <v>1.1600623607595688</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="79">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B39" t="n" s="84">
         <v>48.0</v>
       </c>
       <c r="C39" t="n" s="85">
-        <v>0.7208159479907237</v>
+        <v>0.64015856160026</v>
       </c>
       <c r="D39" t="n" s="86">
-        <v>0.7155415512451845</v>
+        <v>0.6264974473455944</v>
       </c>
       <c r="E39" t="n" s="87">
-        <v>0.7037548516530543</v>
+        <v>0.5832625888007885</v>
       </c>
       <c r="F39" t="n" s="88">
-        <v>0.6540094147474256</v>
+        <v>0.5443122569756801</v>
       </c>
       <c r="G39" t="n" s="89">
-        <v>2.25</v>
+        <v>2.1458333333333335</v>
       </c>
       <c r="H39" t="n" s="90">
-        <v>1.391463335041911</v>
+        <v>1.2880726709598953</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="79">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B40" t="n" s="84">
         <v>48.0</v>
       </c>
       <c r="C40" t="n" s="85">
-        <v>0.4626629356951821</v>
+        <v>0.5913152940053058</v>
       </c>
       <c r="D40" t="n" s="86">
-        <v>0.46863670448534545</v>
+        <v>0.5939457886978255</v>
       </c>
       <c r="E40" t="n" s="87">
-        <v>0.44189369153464747</v>
+        <v>0.5484853398578766</v>
       </c>
       <c r="F40" t="n" s="88">
-        <v>0.38800419977198597</v>
+        <v>0.5188398754980351</v>
       </c>
       <c r="G40" t="n" s="89">
-        <v>3.125</v>
+        <v>2.6875</v>
       </c>
       <c r="H40" t="n" s="90">
-        <v>1.023656358562546</v>
+        <v>0.9261278345657509</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="79">
-        <v>27</v>
-      </c>
-      <c r="B41" t="n" s="84">
-        <v>48.0</v>
-      </c>
-      <c r="C41" t="n" s="85">
-        <v>0.38756672969930756</v>
-      </c>
-      <c r="D41" t="n" s="86">
-        <v>0.39642035384298846</v>
-      </c>
-      <c r="E41" t="n" s="87">
-        <v>0.3653172667733685</v>
-      </c>
-      <c r="F41" t="n" s="88">
-        <v>0.300625638457156</v>
-      </c>
-      <c r="G41" t="n" s="89">
-        <v>3.4583333333333335</v>
-      </c>
-      <c r="H41" t="n" s="90">
-        <v>1.1100763503228501</v>
+      <c r="A41" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="79">
-        <v>28</v>
-      </c>
-      <c r="B42" t="n" s="84">
-        <v>48.0</v>
-      </c>
-      <c r="C42" t="n" s="85">
-        <v>0.6831054669183397</v>
-      </c>
-      <c r="D42" t="n" s="86">
-        <v>0.6842614624891644</v>
-      </c>
-      <c r="E42" t="n" s="87">
-        <v>0.6660664617324543</v>
-      </c>
-      <c r="F42" t="n" s="88">
-        <v>0.6230516485314683</v>
-      </c>
-      <c r="G42" t="n" s="89">
-        <v>2.875</v>
-      </c>
-      <c r="H42" t="n" s="90">
-        <v>1.1600623607595688</v>
+      <c r="A42" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="79">
-        <v>29</v>
-      </c>
-      <c r="B43" t="n" s="84">
-        <v>48.0</v>
-      </c>
-      <c r="C43" t="n" s="85">
-        <v>0.7535586782076759</v>
-      </c>
-      <c r="D43" t="n" s="86">
-        <v>0.7566514182646426</v>
-      </c>
-      <c r="E43" t="n" s="87">
-        <v>0.7577501304638614</v>
-      </c>
-      <c r="F43" t="n" s="88">
-        <v>0.7096375534906675</v>
-      </c>
-      <c r="G43" t="n" s="89">
-        <v>2.7291666666666665</v>
-      </c>
-      <c r="H43" t="n" s="90">
-        <v>1.0465664902144136</v>
+      <c r="A43" t="s" s="94">
+        <v>37</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="79">
-        <v>30</v>
-      </c>
-      <c r="B44" t="n" s="84">
-        <v>48.0</v>
-      </c>
-      <c r="C44" t="n" s="85">
-        <v>0.7427273481162365</v>
-      </c>
-      <c r="D44" t="n" s="86">
-        <v>0.7473676977957305</v>
-      </c>
-      <c r="E44" t="n" s="87">
-        <v>0.7371105024015276</v>
-      </c>
-      <c r="F44" t="n" s="88">
-        <v>0.7025991990812758</v>
-      </c>
-      <c r="G44" t="n" s="89">
-        <v>2.6458333333333335</v>
-      </c>
-      <c r="H44" t="n" s="90">
-        <v>0.9337543376716209</v>
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
+        <v>38</v>
+      </c>
+      <c r="C44" t="s" s="108">
+        <v>39</v>
+      </c>
+      <c r="D44" t="s" s="108">
+        <v>40</v>
+      </c>
+      <c r="E44" t="s" s="108">
+        <v>41</v>
+      </c>
+      <c r="F44" t="s" s="108">
+        <v>42</v>
+      </c>
+      <c r="G44" t="s" s="108">
+        <v>43</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="79">
-        <v>31</v>
-      </c>
-      <c r="B45" t="n" s="84">
-        <v>48.0</v>
-      </c>
-      <c r="C45" t="n" s="85">
-        <v>0.492648209664402</v>
-      </c>
-      <c r="D45" t="n" s="86">
-        <v>0.503339434701128</v>
-      </c>
-      <c r="E45" t="n" s="87">
-        <v>0.4702485045744636</v>
-      </c>
-      <c r="F45" t="n" s="88">
-        <v>0.4270883202040132</v>
-      </c>
-      <c r="G45" t="n" s="89">
-        <v>3.75</v>
-      </c>
-      <c r="H45" t="n" s="90">
-        <v>0.933991662453105</v>
+      <c r="A45" t="s" s="104">
+        <v>18</v>
+      </c>
+      <c r="B45" t="n" s="109">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C45" t="n" s="110">
+        <v>0.4583333333333333</v>
+      </c>
+      <c r="D45" t="n" s="111">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E45" t="n" s="112">
+        <v>0.0625</v>
+      </c>
+      <c r="F45" t="n" s="113">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="G45" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="79">
-        <v>32</v>
-      </c>
-      <c r="B46" t="n" s="84">
-        <v>48.0</v>
-      </c>
-      <c r="C46" t="n" s="85">
-        <v>0.5233922397615142</v>
-      </c>
-      <c r="D46" t="n" s="86">
-        <v>0.5254852335242439</v>
-      </c>
-      <c r="E46" t="n" s="87">
-        <v>0.4837003466867279</v>
-      </c>
-      <c r="F46" t="n" s="88">
-        <v>0.45054358899524705</v>
-      </c>
-      <c r="G46" t="n" s="89">
-        <v>2.9166666666666665</v>
-      </c>
-      <c r="H46" t="n" s="90">
-        <v>1.068570995129105</v>
+      <c r="A46" t="s" s="104">
+        <v>19</v>
+      </c>
+      <c r="B46" t="n" s="109">
+        <v>0.3125</v>
+      </c>
+      <c r="C46" t="n" s="110">
+        <v>0.25</v>
+      </c>
+      <c r="D46" t="n" s="111">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E46" t="n" s="112">
+        <v>0.25</v>
+      </c>
+      <c r="F46" t="n" s="113">
+        <v>0.020833333333333332</v>
+      </c>
+      <c r="G46" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="79">
-        <v>33</v>
-      </c>
-      <c r="B47" t="n" s="84">
-        <v>48.0</v>
-      </c>
-      <c r="C47" t="n" s="85">
-        <v>0.557304230131507</v>
-      </c>
-      <c r="D47" t="n" s="86">
-        <v>0.5564891239637373</v>
-      </c>
-      <c r="E47" t="n" s="87">
-        <v>0.5250723914033446</v>
-      </c>
-      <c r="F47" t="n" s="88">
-        <v>0.497649418116516</v>
-      </c>
-      <c r="G47" t="n" s="89">
-        <v>2.6875</v>
-      </c>
-      <c r="H47" t="n" s="90">
-        <v>0.9261278345657509</v>
+      <c r="A47" t="s" s="104">
+        <v>20</v>
+      </c>
+      <c r="B47" t="n" s="109">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="C47" t="n" s="110">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="D47" t="n" s="111">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="E47" t="n" s="112">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="F47" t="n" s="113">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="G47" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="79">
-        <v>34</v>
-      </c>
-      <c r="B48" t="n" s="84">
-        <v>48.0</v>
-      </c>
-      <c r="C48" t="n" s="85">
-        <v>0.583163713711541</v>
-      </c>
-      <c r="D48" t="n" s="86">
-        <v>0.5682971165223107</v>
-      </c>
-      <c r="E48" t="n" s="87">
-        <v>0.5379208238488838</v>
-      </c>
-      <c r="F48" t="n" s="88">
-        <v>0.501278604274411</v>
-      </c>
-      <c r="G48" t="n" s="89">
-        <v>2.1458333333333335</v>
-      </c>
-      <c r="H48" t="n" s="90">
-        <v>1.2880726709598953</v>
+      <c r="A48" t="s" s="104">
+        <v>21</v>
+      </c>
+      <c r="B48" t="n" s="109">
+        <v>0.4375</v>
+      </c>
+      <c r="C48" t="n" s="110">
+        <v>0.4583333333333333</v>
+      </c>
+      <c r="D48" t="n" s="111">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="E48" t="n" s="112">
+        <v>0.0625</v>
+      </c>
+      <c r="F48" t="n" s="113">
+        <v>0.0</v>
+      </c>
+      <c r="G48" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s">
-        <v>1</v>
+      <c r="A49" t="s" s="104">
+        <v>22</v>
+      </c>
+      <c r="B49" t="n" s="109">
+        <v>0.0625</v>
+      </c>
+      <c r="C49" t="n" s="110">
+        <v>0.125</v>
+      </c>
+      <c r="D49" t="n" s="111">
+        <v>0.2708333333333333</v>
+      </c>
+      <c r="E49" t="n" s="112">
+        <v>0.375</v>
+      </c>
+      <c r="F49" t="n" s="113">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G49" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s">
-        <v>1</v>
+      <c r="A50" t="s" s="104">
+        <v>23</v>
+      </c>
+      <c r="B50" t="n" s="109">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="C50" t="n" s="110">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="D50" t="n" s="111">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="E50" t="n" s="112">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="F50" t="n" s="113">
+        <v>0.020833333333333332</v>
+      </c>
+      <c r="G50" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s" s="94">
-        <v>41</v>
+      <c r="A51" t="s" s="104">
+        <v>24</v>
+      </c>
+      <c r="B51" t="n" s="109">
+        <v>0.0625</v>
+      </c>
+      <c r="C51" t="n" s="110">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="D51" t="n" s="111">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="E51" t="n" s="112">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="F51" t="n" s="113">
+        <v>0.125</v>
+      </c>
+      <c r="G51" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52"/>
-      <c r="B52" t="s" s="108">
-        <v>42</v>
-      </c>
-      <c r="C52" t="s" s="108">
-        <v>43</v>
-      </c>
-      <c r="D52" t="s" s="108">
-        <v>44</v>
-      </c>
-      <c r="E52" t="s" s="108">
-        <v>45</v>
-      </c>
-      <c r="F52" t="s" s="108">
-        <v>46</v>
-      </c>
-      <c r="G52" t="s" s="108">
-        <v>47</v>
+      <c r="A52" t="s" s="104">
+        <v>25</v>
+      </c>
+      <c r="B52" t="n" s="109">
+        <v>0.2708333333333333</v>
+      </c>
+      <c r="C52" t="n" s="110">
+        <v>0.4791666666666667</v>
+      </c>
+      <c r="D52" t="n" s="111">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="E52" t="n" s="112">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="F52" t="n" s="113">
+        <v>0.0</v>
+      </c>
+      <c r="G52" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.3125</v>
+        <v>0.2708333333333333</v>
       </c>
       <c r="C53" t="n" s="110">
-        <v>0.25</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="D53" t="n" s="111">
-        <v>0.16666666666666666</v>
+        <v>0.14583333333333334</v>
       </c>
       <c r="E53" t="n" s="112">
-        <v>0.25</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="F53" t="n" s="113">
-        <v>0.020833333333333332</v>
+        <v>0.041666666666666664</v>
       </c>
       <c r="G53" t="n" s="114">
         <v>0.0</v>
@@ -3579,22 +3531,22 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B54" t="n" s="109">
-        <v>0.3541666666666667</v>
+        <v>0.4375</v>
       </c>
       <c r="C54" t="n" s="110">
-        <v>0.14583333333333334</v>
+        <v>0.1875</v>
       </c>
       <c r="D54" t="n" s="111">
-        <v>0.4166666666666667</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E54" t="n" s="112">
-        <v>0.041666666666666664</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="F54" t="n" s="113">
-        <v>0.041666666666666664</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="G54" t="n" s="114">
         <v>0.0</v>
@@ -3602,22 +3554,22 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="104">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B55" t="n" s="109">
         <v>0.16666666666666666</v>
       </c>
       <c r="C55" t="n" s="110">
-        <v>0.4583333333333333</v>
+        <v>0.1875</v>
       </c>
       <c r="D55" t="n" s="111">
-        <v>0.16666666666666666</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="E55" t="n" s="112">
-        <v>0.0625</v>
+        <v>0.3125</v>
       </c>
       <c r="F55" t="n" s="113">
-        <v>0.14583333333333334</v>
+        <v>0.041666666666666664</v>
       </c>
       <c r="G55" t="n" s="114">
         <v>0.0</v>
@@ -3625,22 +3577,22 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="104">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B56" t="n" s="109">
-        <v>0.4375</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="C56" t="n" s="110">
-        <v>0.4583333333333333</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="D56" t="n" s="111">
-        <v>0.041666666666666664</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="E56" t="n" s="112">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="F56" t="n" s="113">
         <v>0.0625</v>
-      </c>
-      <c r="F56" t="n" s="113">
-        <v>0.0</v>
       </c>
       <c r="G56" t="n" s="114">
         <v>0.0</v>
@@ -3648,300 +3600,24 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="104">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B57" t="n" s="109">
-        <v>0.2708333333333333</v>
+        <v>0.125</v>
       </c>
       <c r="C57" t="n" s="110">
-        <v>0.4791666666666667</v>
+        <v>0.22916666666666666</v>
       </c>
       <c r="D57" t="n" s="111">
-        <v>0.14583333333333334</v>
+        <v>0.5</v>
       </c>
       <c r="E57" t="n" s="112">
-        <v>0.10416666666666667</v>
+        <v>0.125</v>
       </c>
       <c r="F57" t="n" s="113">
-        <v>0.0</v>
+        <v>0.020833333333333332</v>
       </c>
       <c r="G57" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="104">
-        <v>23</v>
-      </c>
-      <c r="B58" t="n" s="109">
-        <v>0.3958333333333333</v>
-      </c>
-      <c r="C58" t="n" s="110">
-        <v>0.3958333333333333</v>
-      </c>
-      <c r="D58" t="n" s="111">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="E58" t="n" s="112">
-        <v>0.041666666666666664</v>
-      </c>
-      <c r="F58" t="n" s="113">
-        <v>0.020833333333333332</v>
-      </c>
-      <c r="G58" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="104">
-        <v>24</v>
-      </c>
-      <c r="B59" t="n" s="109">
-        <v>0.2708333333333333</v>
-      </c>
-      <c r="C59" t="n" s="110">
-        <v>0.4583333333333333</v>
-      </c>
-      <c r="D59" t="n" s="111">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="E59" t="n" s="112">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="F59" t="n" s="113">
-        <v>0.041666666666666664</v>
-      </c>
-      <c r="G59" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="104">
-        <v>25</v>
-      </c>
-      <c r="B60" t="n" s="109">
-        <v>0.4375</v>
-      </c>
-      <c r="C60" t="n" s="110">
-        <v>0.1875</v>
-      </c>
-      <c r="D60" t="n" s="111">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="E60" t="n" s="112">
-        <v>0.10416666666666667</v>
-      </c>
-      <c r="F60" t="n" s="113">
-        <v>0.10416666666666667</v>
-      </c>
-      <c r="G60" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="104">
-        <v>26</v>
-      </c>
-      <c r="B61" t="n" s="109">
-        <v>0.0625</v>
-      </c>
-      <c r="C61" t="n" s="110">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="D61" t="n" s="111">
-        <v>0.5208333333333334</v>
-      </c>
-      <c r="E61" t="n" s="112">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="F61" t="n" s="113">
-        <v>0.125</v>
-      </c>
-      <c r="G61" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="104">
-        <v>27</v>
-      </c>
-      <c r="B62" t="n" s="109">
-        <v>0.0625</v>
-      </c>
-      <c r="C62" t="n" s="110">
-        <v>0.125</v>
-      </c>
-      <c r="D62" t="n" s="111">
-        <v>0.2708333333333333</v>
-      </c>
-      <c r="E62" t="n" s="112">
-        <v>0.375</v>
-      </c>
-      <c r="F62" t="n" s="113">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="G62" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="104">
-        <v>28</v>
-      </c>
-      <c r="B63" t="n" s="109">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="C63" t="n" s="110">
-        <v>0.1875</v>
-      </c>
-      <c r="D63" t="n" s="111">
-        <v>0.2916666666666667</v>
-      </c>
-      <c r="E63" t="n" s="112">
-        <v>0.3125</v>
-      </c>
-      <c r="F63" t="n" s="113">
-        <v>0.041666666666666664</v>
-      </c>
-      <c r="G63" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="104">
-        <v>29</v>
-      </c>
-      <c r="B64" t="n" s="109">
-        <v>0.020833333333333332</v>
-      </c>
-      <c r="C64" t="n" s="110">
-        <v>0.5625</v>
-      </c>
-      <c r="D64" t="n" s="111">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="E64" t="n" s="112">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="F64" t="n" s="113">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="G64" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="104">
-        <v>30</v>
-      </c>
-      <c r="B65" t="n" s="109">
-        <v>0.041666666666666664</v>
-      </c>
-      <c r="C65" t="n" s="110">
-        <v>0.4583333333333333</v>
-      </c>
-      <c r="D65" t="n" s="111">
-        <v>0.3958333333333333</v>
-      </c>
-      <c r="E65" t="n" s="112">
-        <v>0.020833333333333332</v>
-      </c>
-      <c r="F65" t="n" s="113">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="G65" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="104">
-        <v>31</v>
-      </c>
-      <c r="B66" t="n" s="109">
-        <v>0.0</v>
-      </c>
-      <c r="C66" t="n" s="110">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="D66" t="n" s="111">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="E66" t="n" s="112">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="F66" t="n" s="113">
-        <v>0.25</v>
-      </c>
-      <c r="G66" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="104">
-        <v>32</v>
-      </c>
-      <c r="B67" t="n" s="109">
-        <v>0.0625</v>
-      </c>
-      <c r="C67" t="n" s="110">
-        <v>0.3541666666666667</v>
-      </c>
-      <c r="D67" t="n" s="111">
-        <v>0.25</v>
-      </c>
-      <c r="E67" t="n" s="112">
-        <v>0.2708333333333333</v>
-      </c>
-      <c r="F67" t="n" s="113">
-        <v>0.0625</v>
-      </c>
-      <c r="G67" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="104">
-        <v>33</v>
-      </c>
-      <c r="B68" t="n" s="109">
-        <v>0.125</v>
-      </c>
-      <c r="C68" t="n" s="110">
-        <v>0.22916666666666666</v>
-      </c>
-      <c r="D68" t="n" s="111">
-        <v>0.5</v>
-      </c>
-      <c r="E68" t="n" s="112">
-        <v>0.125</v>
-      </c>
-      <c r="F68" t="n" s="113">
-        <v>0.020833333333333332</v>
-      </c>
-      <c r="G68" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="104">
-        <v>34</v>
-      </c>
-      <c r="B69" t="n" s="109">
-        <v>0.4583333333333333</v>
-      </c>
-      <c r="C69" t="n" s="110">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="D69" t="n" s="111">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="E69" t="n" s="112">
-        <v>0.10416666666666667</v>
-      </c>
-      <c r="F69" t="n" s="113">
-        <v>0.0625</v>
-      </c>
-      <c r="G69" t="n" s="114">
         <v>0.0</v>
       </c>
     </row>
@@ -3972,7 +3648,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="116">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2">
@@ -4027,7 +3703,7 @@
         <v>0.7949000378159374</v>
       </c>
       <c r="C6" t="n" s="147">
-        <v>0.7739477497356972</v>
+        <v>0.773947749735697</v>
       </c>
       <c r="D6" t="n" s="148">
         <v>0.4921067873734761</v>
@@ -4095,28 +3771,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="172">
-        <v>0.6427500535446562</v>
+        <v>0.755531536113937</v>
       </c>
       <c r="C11" t="n" s="173">
-        <v>0.6551198495688855</v>
+        <v>0.7605070092680288</v>
       </c>
       <c r="D11" t="n" s="174">
-        <v>0.5678215710411239</v>
+        <v>0.691464979536708</v>
       </c>
       <c r="E11" t="n" s="175">
-        <v>0.3876998703511969</v>
+        <v>0.5142083960222918</v>
       </c>
       <c r="F11" t="n" s="176">
-        <v>1.8995580022508074</v>
+        <v>3.1754875453501312</v>
       </c>
       <c r="G11" t="n" s="177">
-        <v>0.08496332700686848</v>
+        <v>0.05614604549945715</v>
       </c>
       <c r="H11" t="n" s="178">
-        <v>0.006778868252886893</v>
+        <v>0.009704534697488297</v>
       </c>
       <c r="I11" t="n" s="179">
-        <v>0.4280223750264884</v>
+        <v>0.49300901166534705</v>
       </c>
     </row>
     <row r="12">
@@ -4124,28 +3800,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="172">
-        <v>0.7415234283023311</v>
+        <v>0.6427500535446562</v>
       </c>
       <c r="C12" t="n" s="173">
-        <v>0.7401021475172548</v>
+        <v>0.6551198495688855</v>
       </c>
       <c r="D12" t="n" s="174">
-        <v>0.7052450441062135</v>
+        <v>0.5678215710411233</v>
       </c>
       <c r="E12" t="n" s="175">
-        <v>0.4869747592384859</v>
+        <v>0.3876998703511969</v>
       </c>
       <c r="F12" t="n" s="176">
-        <v>2.847665497991717</v>
+        <v>1.8995580022508074</v>
       </c>
       <c r="G12" t="n" s="177">
-        <v>0.058120984202290074</v>
+        <v>0.08496332700686848</v>
       </c>
       <c r="H12" t="n" s="178">
-        <v>0.03650092436605984</v>
+        <v>0.006778868252886893</v>
       </c>
       <c r="I12" t="n" s="179">
-        <v>0.49300901166534705</v>
+        <v>0.4280223750264884</v>
       </c>
     </row>
     <row r="13">
@@ -4153,25 +3829,25 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="172">
-        <v>0.755531536113937</v>
+        <v>0.7415234283023311</v>
       </c>
       <c r="C13" t="n" s="173">
-        <v>0.7605070092680288</v>
+        <v>0.7401021475172548</v>
       </c>
       <c r="D13" t="n" s="174">
-        <v>0.691464979536708</v>
+        <v>0.7052450441062135</v>
       </c>
       <c r="E13" t="n" s="175">
-        <v>0.5142083960222918</v>
+        <v>0.4869747592384859</v>
       </c>
       <c r="F13" t="n" s="176">
-        <v>3.1754875453501312</v>
+        <v>2.847665497991717</v>
       </c>
       <c r="G13" t="n" s="177">
-        <v>0.05614604549945715</v>
+        <v>0.058120984202290074</v>
       </c>
       <c r="H13" t="n" s="178">
-        <v>0.009704534697488297</v>
+        <v>0.03650092436605982</v>
       </c>
       <c r="I13" t="n" s="179">
         <v>0.49300901166534705</v>
@@ -4200,7 +3876,7 @@
         <v>0.0486799893714363</v>
       </c>
       <c r="H14" t="n" s="178">
-        <v>0.014879518589204763</v>
+        <v>0.01487951858920475</v>
       </c>
       <c r="I14" t="n" s="179">
         <v>0.6215938013750401</v>
@@ -4218,25 +3894,25 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="183">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s" s="197">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s" s="197">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s" s="197">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s" s="197">
+        <v>35</v>
+      </c>
+      <c r="F18" t="s" s="197">
         <v>36</v>
-      </c>
-      <c r="C18" t="s" s="197">
-        <v>37</v>
-      </c>
-      <c r="D18" t="s" s="197">
-        <v>38</v>
-      </c>
-      <c r="E18" t="s" s="197">
-        <v>39</v>
-      </c>
-      <c r="F18" t="s" s="197">
-        <v>40</v>
       </c>
       <c r="G18" t="s" s="197">
         <v>9</v>
@@ -4253,22 +3929,22 @@
         <v>48.0</v>
       </c>
       <c r="C19" t="n" s="199">
-        <v>0.9009570355397204</v>
+        <v>0.8010752543464912</v>
       </c>
       <c r="D19" t="n" s="200">
-        <v>0.8863379740849321</v>
+        <v>0.7657489892325021</v>
       </c>
       <c r="E19" t="n" s="201">
-        <v>0.871571318540209</v>
+        <v>0.6750462639464095</v>
       </c>
       <c r="F19" t="n" s="202">
-        <v>0.7865763006654806</v>
+        <v>0.5948188674474283</v>
       </c>
       <c r="G19" t="n" s="203">
-        <v>2.4166666666666665</v>
+        <v>2.5625</v>
       </c>
       <c r="H19" t="n" s="204">
-        <v>1.2348371127543345</v>
+        <v>1.2700519339356233</v>
       </c>
     </row>
     <row r="20">
@@ -4279,22 +3955,22 @@
         <v>48.0</v>
       </c>
       <c r="C20" t="n" s="199">
-        <v>0.7908374101431068</v>
+        <v>0.9009570355397204</v>
       </c>
       <c r="D20" t="n" s="200">
-        <v>0.7917083196110501</v>
+        <v>0.8863379740849321</v>
       </c>
       <c r="E20" t="n" s="201">
-        <v>0.6859203407403416</v>
+        <v>0.871571318540209</v>
       </c>
       <c r="F20" t="n" s="202">
-        <v>0.6119828656883044</v>
+        <v>0.7865763006654806</v>
       </c>
       <c r="G20" t="n" s="203">
-        <v>2.2708333333333335</v>
+        <v>2.4166666666666665</v>
       </c>
       <c r="H20" t="n" s="204">
-        <v>1.124950747542826</v>
+        <v>1.2348371127543345</v>
       </c>
     </row>
     <row r="21">
@@ -4305,22 +3981,22 @@
         <v>48.0</v>
       </c>
       <c r="C21" t="n" s="199">
-        <v>0.8010752543464912</v>
+        <v>0.7908374101431068</v>
       </c>
       <c r="D21" t="n" s="200">
-        <v>0.7657489892325021</v>
+        <v>0.7917083196110501</v>
       </c>
       <c r="E21" t="n" s="201">
-        <v>0.6750462639464093</v>
+        <v>0.6859203407403418</v>
       </c>
       <c r="F21" t="n" s="202">
-        <v>0.5948188674474283</v>
+        <v>0.6119828656883044</v>
       </c>
       <c r="G21" t="n" s="203">
-        <v>2.5625</v>
+        <v>2.2708333333333335</v>
       </c>
       <c r="H21" t="n" s="204">
-        <v>1.2700519339356233</v>
+        <v>1.124950747542826</v>
       </c>
     </row>
     <row r="22">
@@ -4337,7 +4013,7 @@
         <v>0.7034704269348744</v>
       </c>
       <c r="E22" t="n" s="201">
-        <v>0.5362470607599094</v>
+        <v>0.5362470607599087</v>
       </c>
       <c r="F22" t="n" s="202">
         <v>0.47419519801247945</v>
@@ -4361,28 +4037,28 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="208">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s" s="222">
+        <v>38</v>
+      </c>
+      <c r="C26" t="s" s="222">
+        <v>39</v>
+      </c>
+      <c r="D26" t="s" s="222">
+        <v>40</v>
+      </c>
+      <c r="E26" t="s" s="222">
+        <v>41</v>
+      </c>
+      <c r="F26" t="s" s="222">
         <v>42</v>
       </c>
-      <c r="C26" t="s" s="222">
+      <c r="G26" t="s" s="222">
         <v>43</v>
-      </c>
-      <c r="D26" t="s" s="222">
-        <v>44</v>
-      </c>
-      <c r="E26" t="s" s="222">
-        <v>45</v>
-      </c>
-      <c r="F26" t="s" s="222">
-        <v>46</v>
-      </c>
-      <c r="G26" t="s" s="222">
-        <v>47</v>
       </c>
     </row>
     <row r="27">
@@ -4390,19 +4066,19 @@
         <v>18</v>
       </c>
       <c r="B27" t="n" s="223">
-        <v>0.3125</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="C27" t="n" s="224">
-        <v>0.25</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="D27" t="n" s="225">
         <v>0.16666666666666666</v>
       </c>
       <c r="E27" t="n" s="226">
-        <v>0.25</v>
+        <v>0.0625</v>
       </c>
       <c r="F27" t="n" s="227">
-        <v>0.020833333333333332</v>
+        <v>0.14583333333333334</v>
       </c>
       <c r="G27" t="n" s="228">
         <v>0.0</v>
@@ -4413,19 +4089,19 @@
         <v>19</v>
       </c>
       <c r="B28" t="n" s="223">
-        <v>0.3541666666666667</v>
+        <v>0.3125</v>
       </c>
       <c r="C28" t="n" s="224">
-        <v>0.14583333333333334</v>
+        <v>0.25</v>
       </c>
       <c r="D28" t="n" s="225">
-        <v>0.4166666666666667</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E28" t="n" s="226">
-        <v>0.041666666666666664</v>
+        <v>0.25</v>
       </c>
       <c r="F28" t="n" s="227">
-        <v>0.041666666666666664</v>
+        <v>0.020833333333333332</v>
       </c>
       <c r="G28" t="n" s="228">
         <v>0.0</v>
@@ -4436,19 +4112,19 @@
         <v>20</v>
       </c>
       <c r="B29" t="n" s="223">
-        <v>0.16666666666666666</v>
+        <v>0.3541666666666667</v>
       </c>
       <c r="C29" t="n" s="224">
-        <v>0.4583333333333333</v>
+        <v>0.14583333333333334</v>
       </c>
       <c r="D29" t="n" s="225">
-        <v>0.16666666666666666</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="E29" t="n" s="226">
-        <v>0.0625</v>
+        <v>0.041666666666666664</v>
       </c>
       <c r="F29" t="n" s="227">
-        <v>0.14583333333333334</v>
+        <v>0.041666666666666664</v>
       </c>
       <c r="G29" t="n" s="228">
         <v>0.0</v>
@@ -4504,7 +4180,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="230">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -4627,28 +4303,28 @@
         <v>22</v>
       </c>
       <c r="B11" t="n" s="286">
-        <v>0.7096140264685111</v>
+        <v>0.7697791486018564</v>
       </c>
       <c r="C11" t="n" s="287">
-        <v>0.7180983426372894</v>
+        <v>0.778125271627286</v>
       </c>
       <c r="D11" t="n" s="288">
-        <v>0.7436634426242883</v>
+        <v>0.7647089227986621</v>
       </c>
       <c r="E11" t="n" s="289">
-        <v>0.33751461980668784</v>
+        <v>0.4122520368439172</v>
       </c>
       <c r="F11" t="n" s="290">
-        <v>2.547336363167755</v>
+        <v>3.5070477712097086</v>
       </c>
       <c r="G11" t="n" s="291">
-        <v>0.06715840492209979</v>
+        <v>0.05087888084228411</v>
       </c>
       <c r="H11" t="n" s="292">
-        <v>0.04406711881159225</v>
+        <v>0.027185924311313458</v>
       </c>
       <c r="I11" t="n" s="293">
-        <v>0.28377848855126553</v>
+        <v>0.43619151201490525</v>
       </c>
     </row>
     <row r="12">
@@ -4662,7 +4338,7 @@
         <v>0.6986459401903045</v>
       </c>
       <c r="D12" t="n" s="288">
-        <v>0.7091312734965574</v>
+        <v>0.7091312734965572</v>
       </c>
       <c r="E12" t="n" s="289">
         <v>0.316786431404644</v>
@@ -4685,28 +4361,28 @@
         <v>24</v>
       </c>
       <c r="B13" t="n" s="286">
-        <v>0.7372175980975029</v>
+        <v>0.7504621614483992</v>
       </c>
       <c r="C13" t="n" s="287">
-        <v>0.7538031853470961</v>
+        <v>0.7643545379732513</v>
       </c>
       <c r="D13" t="n" s="288">
-        <v>0.7634654158060177</v>
+        <v>0.757890562962874</v>
       </c>
       <c r="E13" t="n" s="289">
-        <v>0.37979041938952757</v>
+        <v>0.3934735304554084</v>
       </c>
       <c r="F13" t="n" s="290">
-        <v>3.061790975686798</v>
+        <v>3.2436633041823115</v>
       </c>
       <c r="G13" t="n" s="291">
-        <v>0.061402773635834795</v>
+        <v>0.05624272800631136</v>
       </c>
       <c r="H13" t="n" s="292">
-        <v>0.0281535120220623</v>
+        <v>0.035975676699917955</v>
       </c>
       <c r="I13" t="n" s="293">
-        <v>0.3326754547234867</v>
+        <v>0.43619151201490525</v>
       </c>
     </row>
     <row r="14">
@@ -4714,28 +4390,28 @@
         <v>25</v>
       </c>
       <c r="B14" t="n" s="286">
-        <v>0.7243963363863446</v>
+        <v>0.7096140264685111</v>
       </c>
       <c r="C14" t="n" s="287">
-        <v>0.7322031176803306</v>
+        <v>0.7180983426372894</v>
       </c>
       <c r="D14" t="n" s="288">
-        <v>0.7423860457358928</v>
+        <v>0.7436634426242883</v>
       </c>
       <c r="E14" t="n" s="289">
-        <v>0.35351850439893856</v>
+        <v>0.33751461980668784</v>
       </c>
       <c r="F14" t="n" s="290">
-        <v>2.7341734203100225</v>
+        <v>2.547336363167755</v>
       </c>
       <c r="G14" t="n" s="291">
-        <v>0.06500039289254901</v>
+        <v>0.06715840492209976</v>
       </c>
       <c r="H14" t="n" s="292">
-        <v>0.030973379728547554</v>
+        <v>0.04406711881159225</v>
       </c>
       <c r="I14" t="n" s="293">
-        <v>0.3326754547234867</v>
+        <v>0.28377848855126553</v>
       </c>
     </row>
     <row r="15">
@@ -4743,28 +4419,28 @@
         <v>26</v>
       </c>
       <c r="B15" t="n" s="286">
-        <v>0.7504621614483992</v>
+        <v>0.7372175980975029</v>
       </c>
       <c r="C15" t="n" s="287">
-        <v>0.7643545379732513</v>
+        <v>0.7538031853470961</v>
       </c>
       <c r="D15" t="n" s="288">
-        <v>0.757890562962874</v>
+        <v>0.7634654158060177</v>
       </c>
       <c r="E15" t="n" s="289">
-        <v>0.3934735304554084</v>
+        <v>0.37979041938952757</v>
       </c>
       <c r="F15" t="n" s="290">
-        <v>3.2436633041823115</v>
+        <v>3.061790975686798</v>
       </c>
       <c r="G15" t="n" s="291">
-        <v>0.05624272800631136</v>
+        <v>0.061402773635834816</v>
       </c>
       <c r="H15" t="n" s="292">
-        <v>0.03597567669991795</v>
+        <v>0.028153512022062302</v>
       </c>
       <c r="I15" t="n" s="293">
-        <v>0.43619151201490525</v>
+        <v>0.3326754547234867</v>
       </c>
     </row>
     <row r="16">
@@ -4772,28 +4448,28 @@
         <v>27</v>
       </c>
       <c r="B16" t="n" s="286">
-        <v>0.7697791486018564</v>
+        <v>0.7243963363863446</v>
       </c>
       <c r="C16" t="n" s="287">
-        <v>0.778125271627286</v>
+        <v>0.7322031176803306</v>
       </c>
       <c r="D16" t="n" s="288">
-        <v>0.7647089227986621</v>
+        <v>0.7423860457358927</v>
       </c>
       <c r="E16" t="n" s="289">
-        <v>0.4122520368439172</v>
+        <v>0.35351850439893856</v>
       </c>
       <c r="F16" t="n" s="290">
-        <v>3.5070477712097086</v>
+        <v>2.7341734203100225</v>
       </c>
       <c r="G16" t="n" s="291">
-        <v>0.05087888084228411</v>
+        <v>0.06500039289254901</v>
       </c>
       <c r="H16" t="n" s="292">
-        <v>0.027185924311313454</v>
+        <v>0.03097337972854756</v>
       </c>
       <c r="I16" t="n" s="293">
-        <v>0.43619151201490525</v>
+        <v>0.3326754547234867</v>
       </c>
     </row>
     <row r="17">
@@ -4808,25 +4484,25 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="297">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s" s="311">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s" s="311">
+        <v>33</v>
+      </c>
+      <c r="D20" t="s" s="311">
+        <v>34</v>
+      </c>
+      <c r="E20" t="s" s="311">
+        <v>35</v>
+      </c>
+      <c r="F20" t="s" s="311">
         <v>36</v>
-      </c>
-      <c r="C20" t="s" s="311">
-        <v>37</v>
-      </c>
-      <c r="D20" t="s" s="311">
-        <v>38</v>
-      </c>
-      <c r="E20" t="s" s="311">
-        <v>39</v>
-      </c>
-      <c r="F20" t="s" s="311">
-        <v>40</v>
       </c>
       <c r="G20" t="s" s="311">
         <v>9</v>
@@ -4843,22 +4519,22 @@
         <v>48.0</v>
       </c>
       <c r="C21" t="n" s="313">
-        <v>0.7337038214100348</v>
+        <v>0.5654799535221777</v>
       </c>
       <c r="D21" t="n" s="314">
-        <v>0.7545873581236718</v>
+        <v>0.5731445832179879</v>
       </c>
       <c r="E21" t="n" s="315">
-        <v>0.6835533476436314</v>
+        <v>0.4672572311302932</v>
       </c>
       <c r="F21" t="n" s="316">
-        <v>0.6121032552370359</v>
+        <v>0.3562341558057006</v>
       </c>
       <c r="G21" t="n" s="317">
-        <v>2.0833333333333335</v>
+        <v>3.4583333333333335</v>
       </c>
       <c r="H21" t="n" s="318">
-        <v>0.9186792863702076</v>
+        <v>1.1100763503228501</v>
       </c>
     </row>
     <row r="22">
@@ -4875,7 +4551,7 @@
         <v>0.8049099431356902</v>
       </c>
       <c r="E22" t="n" s="315">
-        <v>0.7810887124232938</v>
+        <v>0.7810887124232937</v>
       </c>
       <c r="F22" t="n" s="316">
         <v>0.6969094445701391</v>
@@ -4895,22 +4571,22 @@
         <v>48.0</v>
       </c>
       <c r="C23" t="n" s="313">
-        <v>0.6553059450369425</v>
+        <v>0.6069520521037859</v>
       </c>
       <c r="D23" t="n" s="314">
-        <v>0.6519528452952987</v>
+        <v>0.618733853529777</v>
       </c>
       <c r="E23" t="n" s="315">
-        <v>0.5603557212190226</v>
+        <v>0.5208982583622614</v>
       </c>
       <c r="F23" t="n" s="316">
-        <v>0.48232913392776233</v>
+        <v>0.42715446580493344</v>
       </c>
       <c r="G23" t="n" s="317">
-        <v>2.1666666666666665</v>
+        <v>3.125</v>
       </c>
       <c r="H23" t="n" s="318">
-        <v>1.0585685503955446</v>
+        <v>1.023656358562546</v>
       </c>
     </row>
     <row r="24">
@@ -4921,22 +4597,22 @@
         <v>48.0</v>
       </c>
       <c r="C24" t="n" s="313">
-        <v>0.7512530634194023</v>
+        <v>0.7337038214100348</v>
       </c>
       <c r="D24" t="n" s="314">
-        <v>0.7157341391498102</v>
+        <v>0.7545873581236718</v>
       </c>
       <c r="E24" t="n" s="315">
-        <v>0.6540743244994376</v>
+        <v>0.6835533476436315</v>
       </c>
       <c r="F24" t="n" s="316">
-        <v>0.5516909853233315</v>
+        <v>0.6121032552370359</v>
       </c>
       <c r="G24" t="n" s="317">
-        <v>2.25</v>
+        <v>2.0833333333333335</v>
       </c>
       <c r="H24" t="n" s="318">
-        <v>1.391463335041911</v>
+        <v>0.9186792863702076</v>
       </c>
     </row>
     <row r="25">
@@ -4947,22 +4623,22 @@
         <v>48.0</v>
       </c>
       <c r="C25" t="n" s="313">
-        <v>0.6069520521037859</v>
+        <v>0.6553059450369425</v>
       </c>
       <c r="D25" t="n" s="314">
-        <v>0.618733853529777</v>
+        <v>0.6519528452952987</v>
       </c>
       <c r="E25" t="n" s="315">
-        <v>0.5208982583622616</v>
+        <v>0.5603557212190227</v>
       </c>
       <c r="F25" t="n" s="316">
-        <v>0.42715446580493344</v>
+        <v>0.48232913392776233</v>
       </c>
       <c r="G25" t="n" s="317">
-        <v>3.125</v>
+        <v>2.1666666666666665</v>
       </c>
       <c r="H25" t="n" s="318">
-        <v>1.023656358562546</v>
+        <v>1.0585685503955446</v>
       </c>
     </row>
     <row r="26">
@@ -4973,22 +4649,22 @@
         <v>48.0</v>
       </c>
       <c r="C26" t="n" s="313">
-        <v>0.5654799535221777</v>
+        <v>0.7512530634194023</v>
       </c>
       <c r="D26" t="n" s="314">
-        <v>0.5731445832179879</v>
+        <v>0.7157341391498102</v>
       </c>
       <c r="E26" t="n" s="315">
-        <v>0.46725723113029316</v>
+        <v>0.6540743244994375</v>
       </c>
       <c r="F26" t="n" s="316">
-        <v>0.3562341558057006</v>
+        <v>0.5516909853233315</v>
       </c>
       <c r="G26" t="n" s="317">
-        <v>3.4583333333333335</v>
+        <v>2.25</v>
       </c>
       <c r="H26" t="n" s="318">
-        <v>1.1100763503228501</v>
+        <v>1.391463335041911</v>
       </c>
     </row>
     <row r="27">
@@ -5003,28 +4679,28 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="322">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30">
       <c r="A30"/>
       <c r="B30" t="s" s="336">
+        <v>38</v>
+      </c>
+      <c r="C30" t="s" s="336">
+        <v>39</v>
+      </c>
+      <c r="D30" t="s" s="336">
+        <v>40</v>
+      </c>
+      <c r="E30" t="s" s="336">
+        <v>41</v>
+      </c>
+      <c r="F30" t="s" s="336">
         <v>42</v>
       </c>
-      <c r="C30" t="s" s="336">
+      <c r="G30" t="s" s="336">
         <v>43</v>
-      </c>
-      <c r="D30" t="s" s="336">
-        <v>44</v>
-      </c>
-      <c r="E30" t="s" s="336">
-        <v>45</v>
-      </c>
-      <c r="F30" t="s" s="336">
-        <v>46</v>
-      </c>
-      <c r="G30" t="s" s="336">
-        <v>47</v>
       </c>
     </row>
     <row r="31">
@@ -5032,19 +4708,19 @@
         <v>22</v>
       </c>
       <c r="B31" t="n" s="337">
+        <v>0.0625</v>
+      </c>
+      <c r="C31" t="n" s="338">
+        <v>0.125</v>
+      </c>
+      <c r="D31" t="n" s="339">
         <v>0.2708333333333333</v>
       </c>
-      <c r="C31" t="n" s="338">
-        <v>0.4791666666666667</v>
-      </c>
-      <c r="D31" t="n" s="339">
-        <v>0.14583333333333334</v>
-      </c>
       <c r="E31" t="n" s="340">
-        <v>0.10416666666666667</v>
+        <v>0.375</v>
       </c>
       <c r="F31" t="n" s="341">
-        <v>0.0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="G31" t="n" s="342">
         <v>0.0</v>
@@ -5078,19 +4754,19 @@
         <v>24</v>
       </c>
       <c r="B33" t="n" s="337">
-        <v>0.2708333333333333</v>
+        <v>0.0625</v>
       </c>
       <c r="C33" t="n" s="338">
-        <v>0.4583333333333333</v>
+        <v>0.14583333333333334</v>
       </c>
       <c r="D33" t="n" s="339">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="E33" t="n" s="340">
         <v>0.14583333333333334</v>
       </c>
-      <c r="E33" t="n" s="340">
-        <v>0.08333333333333333</v>
-      </c>
       <c r="F33" t="n" s="341">
-        <v>0.041666666666666664</v>
+        <v>0.125</v>
       </c>
       <c r="G33" t="n" s="342">
         <v>0.0</v>
@@ -5101,19 +4777,19 @@
         <v>25</v>
       </c>
       <c r="B34" t="n" s="337">
-        <v>0.4375</v>
+        <v>0.2708333333333333</v>
       </c>
       <c r="C34" t="n" s="338">
-        <v>0.1875</v>
+        <v>0.4791666666666667</v>
       </c>
       <c r="D34" t="n" s="339">
-        <v>0.16666666666666666</v>
+        <v>0.14583333333333334</v>
       </c>
       <c r="E34" t="n" s="340">
         <v>0.10416666666666667</v>
       </c>
       <c r="F34" t="n" s="341">
-        <v>0.10416666666666667</v>
+        <v>0.0</v>
       </c>
       <c r="G34" t="n" s="342">
         <v>0.0</v>
@@ -5124,19 +4800,19 @@
         <v>26</v>
       </c>
       <c r="B35" t="n" s="337">
-        <v>0.0625</v>
+        <v>0.2708333333333333</v>
       </c>
       <c r="C35" t="n" s="338">
+        <v>0.4583333333333333</v>
+      </c>
+      <c r="D35" t="n" s="339">
         <v>0.14583333333333334</v>
       </c>
-      <c r="D35" t="n" s="339">
-        <v>0.5208333333333334</v>
-      </c>
       <c r="E35" t="n" s="340">
-        <v>0.14583333333333334</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="F35" t="n" s="341">
-        <v>0.125</v>
+        <v>0.041666666666666664</v>
       </c>
       <c r="G35" t="n" s="342">
         <v>0.0</v>
@@ -5147,19 +4823,19 @@
         <v>27</v>
       </c>
       <c r="B36" t="n" s="337">
-        <v>0.0625</v>
+        <v>0.4375</v>
       </c>
       <c r="C36" t="n" s="338">
-        <v>0.125</v>
+        <v>0.1875</v>
       </c>
       <c r="D36" t="n" s="339">
-        <v>0.2708333333333333</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E36" t="n" s="340">
-        <v>0.375</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="F36" t="n" s="341">
-        <v>0.16666666666666666</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="G36" t="n" s="342">
         <v>0.0</v>
@@ -5192,7 +4868,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="344">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5241,31 +4917,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="373">
-        <v>0.7843456790123458</v>
+        <v>0.689345075663607</v>
       </c>
       <c r="B6" t="n" s="374">
-        <v>0.788831564910119</v>
+        <v>0.6958721497096645</v>
       </c>
       <c r="C6" t="n" s="375">
-        <v>0.8128332852053911</v>
+        <v>0.6055520457465599</v>
       </c>
       <c r="D6" t="n" s="376">
-        <v>0.34796112609392166</v>
+        <v>0.4326875070042752</v>
       </c>
       <c r="E6" t="n" s="377">
-        <v>3.735556237722571</v>
+        <v>2.2880908441806653</v>
       </c>
       <c r="F6" t="n" s="378">
-        <v>0.047435947262804895</v>
+        <v>0.07486916711489397</v>
       </c>
       <c r="G6" t="n" s="379">
-        <v>2.8214285714285716</v>
+        <v>2.5694444444444446</v>
       </c>
       <c r="H6" t="n" s="380">
-        <v>0.6989229354144024</v>
+        <v>0.8911392908062113</v>
       </c>
       <c r="I6" t="n" s="381">
-        <v>0.36459199497262235</v>
+        <v>0.43140166953883907</v>
       </c>
     </row>
     <row r="7">
@@ -5315,28 +4991,26 @@
         <v>28</v>
       </c>
       <c r="B11" t="n" s="400">
-        <v>0.7284657446124154</v>
+        <v>0.5805000000000002</v>
       </c>
       <c r="C11" t="n" s="401">
-        <v>0.737953340989594</v>
+        <v>0.6027681519720813</v>
       </c>
       <c r="D11" t="n" s="402">
-        <v>0.7599749866152448</v>
+        <v>0.43140166953883885</v>
       </c>
       <c r="E11" t="n" s="403">
-        <v>0.319428060607608</v>
+        <v>0.43140166953883896</v>
       </c>
       <c r="F11" t="n" s="404">
-        <v>2.8161142896322486</v>
+        <v>1.517421513316619</v>
       </c>
       <c r="G11" t="n" s="405">
-        <v>0.061131702604479074</v>
-      </c>
-      <c r="H11" t="n" s="406">
-        <v>0.026912395589807358</v>
-      </c>
+        <v>0.11348783635262422</v>
+      </c>
+      <c r="H11" s="406"/>
       <c r="I11" t="n" s="407">
-        <v>0.36136530426948976</v>
+        <v>0.43140166953883907</v>
       </c>
     </row>
     <row r="12">
@@ -5344,28 +5018,26 @@
         <v>29</v>
       </c>
       <c r="B12" t="n" s="400">
-        <v>0.7397405214762565</v>
+        <v>0.559756627553238</v>
       </c>
       <c r="C12" t="n" s="401">
-        <v>0.7412203569918404</v>
+        <v>0.569950208743327</v>
       </c>
       <c r="D12" t="n" s="402">
-        <v>0.7423871286413615</v>
+        <v>0.3985527023100899</v>
       </c>
       <c r="E12" t="n" s="403">
-        <v>0.32312696009428526</v>
+        <v>0.3985527023100899</v>
       </c>
       <c r="F12" t="n" s="404">
-        <v>2.864291597188997</v>
+        <v>1.3253121390382332</v>
       </c>
       <c r="G12" t="n" s="405">
-        <v>0.057134335154965916</v>
-      </c>
-      <c r="H12" t="n" s="406">
-        <v>0.01863716987957703</v>
-      </c>
+        <v>0.1233608883642851</v>
+      </c>
+      <c r="H12" s="406"/>
       <c r="I12" t="n" s="407">
-        <v>0.36227755189240873</v>
+        <v>0.39855270231008993</v>
       </c>
     </row>
     <row r="13">
@@ -5373,561 +5045,247 @@
         <v>30</v>
       </c>
       <c r="B13" t="n" s="400">
-        <v>0.7321418833502714</v>
+        <v>0.6353296426774033</v>
       </c>
       <c r="C13" t="n" s="401">
-        <v>0.7348007546810968</v>
+        <v>0.6377025417786684</v>
       </c>
       <c r="D13" t="n" s="402">
-        <v>0.7386601497787422</v>
+        <v>0.46810814916389687</v>
       </c>
       <c r="E13" t="n" s="403">
-        <v>0.3159079736586317</v>
+        <v>0.46810814916389676</v>
       </c>
       <c r="F13" t="n" s="404">
-        <v>2.7707497953001194</v>
+        <v>1.7601628918662988</v>
       </c>
       <c r="G13" t="n" s="405">
-        <v>0.05948212600237248</v>
-      </c>
-      <c r="H13" t="n" s="406">
-        <v>0.01626470144667715</v>
-      </c>
+        <v>0.10453776785683833</v>
+      </c>
+      <c r="H13" s="406"/>
       <c r="I13" t="n" s="407">
-        <v>0.36459199497262235</v>
+        <v>0.46810814916389676</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="395">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="411">
         <v>31</v>
       </c>
-      <c r="B14" t="n" s="400">
-        <v>0.7781115879828325</v>
-      </c>
-      <c r="C14" t="n" s="401">
-        <v>0.7862893971179971</v>
-      </c>
-      <c r="D14" t="n" s="402">
-        <v>0.8014724501379265</v>
-      </c>
-      <c r="E14" t="n" s="403">
-        <v>0.3801156613538666</v>
-      </c>
-      <c r="F14" t="n" s="404">
-        <v>3.6792250197905942</v>
-      </c>
-      <c r="G14" t="n" s="405">
-        <v>0.0501045420278647</v>
-      </c>
-      <c r="H14" t="n" s="406">
-        <v>0.023064406748330483</v>
-      </c>
-      <c r="I14" t="n" s="407">
-        <v>0.39855270231008993</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="395">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="425">
         <v>32</v>
       </c>
-      <c r="B15" t="n" s="400">
-        <v>0.7698027314112291</v>
-      </c>
-      <c r="C15" t="n" s="401">
-        <v>0.7743343222073148</v>
-      </c>
-      <c r="D15" t="n" s="402">
-        <v>0.7926746804002078</v>
-      </c>
-      <c r="E15" t="n" s="403">
-        <v>0.36382276636569405</v>
-      </c>
-      <c r="F15" t="n" s="404">
-        <v>3.431334041496026</v>
-      </c>
-      <c r="G15" t="n" s="405">
-        <v>0.051123433818724404</v>
-      </c>
-      <c r="H15" t="n" s="406">
-        <v>0.019574655754381172</v>
-      </c>
-      <c r="I15" t="n" s="407">
-        <v>0.36459199497262235</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="395">
+      <c r="C17" t="s" s="425">
         <v>33</v>
       </c>
-      <c r="B16" t="n" s="400">
-        <v>0.7664397221649131</v>
-      </c>
-      <c r="C16" t="n" s="401">
-        <v>0.7746267208620619</v>
-      </c>
-      <c r="D16" t="n" s="402">
-        <v>0.7920000755684367</v>
-      </c>
-      <c r="E16" t="n" s="403">
-        <v>0.36421033424192567</v>
-      </c>
-      <c r="F16" t="n" s="404">
-        <v>3.4370832417447197</v>
-      </c>
-      <c r="G16" t="n" s="405">
-        <v>0.052551281955054846</v>
-      </c>
-      <c r="H16" t="n" s="406">
-        <v>0.022353226042565504</v>
-      </c>
-      <c r="I16" t="n" s="407">
-        <v>0.36459199497262235</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="395">
+      <c r="D17" t="s" s="425">
         <v>34</v>
       </c>
-      <c r="B17" t="n" s="400">
-        <v>0.7794650257440663</v>
-      </c>
-      <c r="C17" t="n" s="401">
-        <v>0.778293446813098</v>
-      </c>
-      <c r="D17" t="n" s="402">
-        <v>0.7944642411610833</v>
-      </c>
-      <c r="E17" t="n" s="403">
-        <v>0.3691161263354405</v>
-      </c>
-      <c r="F17" t="n" s="404">
-        <v>3.5104665857891235</v>
-      </c>
-      <c r="G17" t="n" s="405">
-        <v>0.04868911828503639</v>
-      </c>
-      <c r="H17" t="n" s="406">
-        <v>0.02161572526844559</v>
-      </c>
-      <c r="I17" t="n" s="407">
-        <v>0.3937551926296019</v>
+      <c r="E17" t="s" s="425">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="425">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="425">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="425">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="421">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n" s="426">
+        <v>48.0</v>
+      </c>
+      <c r="C18" t="n" s="427">
+        <v>0.797529801793777</v>
+      </c>
+      <c r="D18" t="n" s="428">
+        <v>0.7890812326773772</v>
+      </c>
+      <c r="E18" t="n" s="429">
+        <v>0.6156275590025503</v>
+      </c>
+      <c r="F18" t="n" s="430">
+        <v>0.5162038387711343</v>
+      </c>
+      <c r="G18" t="n" s="431">
+        <v>2.875</v>
+      </c>
+      <c r="H18" t="n" s="432">
+        <v>1.1600623607595688</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="421">
+        <v>29</v>
+      </c>
+      <c r="B19" t="n" s="426">
+        <v>48.0</v>
+      </c>
+      <c r="C19" t="n" s="427">
+        <v>0.8343777576341845</v>
+      </c>
+      <c r="D19" t="n" s="428">
+        <v>0.8029672599825368</v>
+      </c>
+      <c r="E19" t="n" s="429">
+        <v>0.6463844394981193</v>
+      </c>
+      <c r="F19" t="n" s="430">
+        <v>0.5388441620759893</v>
+      </c>
+      <c r="G19" t="n" s="431">
+        <v>2.1458333333333335</v>
+      </c>
+      <c r="H19" t="n" s="432">
+        <v>1.2880726709598953</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="421">
+        <v>30</v>
+      </c>
+      <c r="B20" t="n" s="426">
+        <v>48.0</v>
+      </c>
+      <c r="C20" t="n" s="427">
+        <v>0.7272153538329128</v>
+      </c>
+      <c r="D20" t="n" s="428">
+        <v>0.7735645445939923</v>
+      </c>
+      <c r="E20" t="n" s="429">
+        <v>0.5788424138449093</v>
+      </c>
+      <c r="F20" t="n" s="430">
+        <v>0.4851131748673333</v>
+      </c>
+      <c r="G20" t="n" s="431">
+        <v>2.6875</v>
+      </c>
+      <c r="H20" t="n" s="432">
+        <v>0.9261278345657509</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s" s="411">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21"/>
-      <c r="B21" t="s" s="425">
-        <v>36</v>
-      </c>
-      <c r="C21" t="s" s="425">
+    <row r="23">
+      <c r="A23" t="s" s="436">
         <v>37</v>
       </c>
-      <c r="D21" t="s" s="425">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="450">
         <v>38</v>
       </c>
-      <c r="E21" t="s" s="425">
+      <c r="C24" t="s" s="450">
         <v>39</v>
       </c>
-      <c r="F21" t="s" s="425">
+      <c r="D24" t="s" s="450">
         <v>40</v>
       </c>
-      <c r="G21" t="s" s="425">
-        <v>9</v>
-      </c>
-      <c r="H21" t="s" s="425">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="421">
+      <c r="E24" t="s" s="450">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="450">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="450">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="446">
         <v>28</v>
       </c>
-      <c r="B22" t="n" s="426">
-        <v>48.0</v>
-      </c>
-      <c r="C22" t="n" s="427">
-        <v>0.7703805332482806</v>
-      </c>
-      <c r="D22" t="n" s="428">
-        <v>0.7562202373726535</v>
-      </c>
-      <c r="E22" t="n" s="429">
-        <v>0.7104771321683985</v>
-      </c>
-      <c r="F22" t="n" s="430">
-        <v>0.641566449793023</v>
-      </c>
-      <c r="G22" t="n" s="431">
-        <v>2.875</v>
-      </c>
-      <c r="H22" t="n" s="432">
-        <v>1.1600623607595688</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="421">
+      <c r="B25" t="n" s="451">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C25" t="n" s="452">
+        <v>0.1875</v>
+      </c>
+      <c r="D25" t="n" s="453">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="E25" t="n" s="454">
+        <v>0.3125</v>
+      </c>
+      <c r="F25" t="n" s="455">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="G25" t="n" s="456">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="446">
         <v>29</v>
       </c>
-      <c r="B23" t="n" s="426">
-        <v>48.0</v>
-      </c>
-      <c r="C23" t="n" s="427">
-        <v>0.7261480395302587</v>
-      </c>
-      <c r="D23" t="n" s="428">
-        <v>0.7442860589783753</v>
-      </c>
-      <c r="E23" t="n" s="429">
-        <v>0.7291305619113597</v>
-      </c>
-      <c r="F23" t="n" s="430">
-        <v>0.5974441230860111</v>
-      </c>
-      <c r="G23" t="n" s="431">
-        <v>2.7291666666666665</v>
-      </c>
-      <c r="H23" t="n" s="432">
-        <v>1.0465664902144136</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="421">
+      <c r="B26" t="n" s="451">
+        <v>0.4583333333333333</v>
+      </c>
+      <c r="C26" t="n" s="452">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D26" t="n" s="453">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="E26" t="n" s="454">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="F26" t="n" s="455">
+        <v>0.0625</v>
+      </c>
+      <c r="G26" t="n" s="456">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="446">
         <v>30</v>
       </c>
-      <c r="B24" t="n" s="426">
-        <v>48.0</v>
-      </c>
-      <c r="C24" t="n" s="427">
-        <v>0.7579894740064841</v>
-      </c>
-      <c r="D24" t="n" s="428">
-        <v>0.7675774926221576</v>
-      </c>
-      <c r="E24" t="n" s="429">
-        <v>0.7596632878223004</v>
-      </c>
-      <c r="F24" t="n" s="430">
-        <v>0.6561426078842274</v>
-      </c>
-      <c r="G24" t="n" s="431">
-        <v>2.6458333333333335</v>
-      </c>
-      <c r="H24" t="n" s="432">
-        <v>0.9337543376716209</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="421">
-        <v>31</v>
-      </c>
-      <c r="B25" t="n" s="426">
-        <v>48.0</v>
-      </c>
-      <c r="C25" t="n" s="427">
-        <v>0.544775630700271</v>
-      </c>
-      <c r="D25" t="n" s="428">
-        <v>0.5604169569009319</v>
-      </c>
-      <c r="E25" t="n" s="429">
-        <v>0.4479752902944407</v>
-      </c>
-      <c r="F25" t="n" s="430">
-        <v>0.38878876617013286</v>
-      </c>
-      <c r="G25" t="n" s="431">
-        <v>3.75</v>
-      </c>
-      <c r="H25" t="n" s="432">
-        <v>0.933991662453105</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="421">
-        <v>32</v>
-      </c>
-      <c r="B26" t="n" s="426">
-        <v>48.0</v>
-      </c>
-      <c r="C26" t="n" s="427">
-        <v>0.6104676956673597</v>
-      </c>
-      <c r="D26" t="n" s="428">
-        <v>0.6129845695242092</v>
-      </c>
-      <c r="E26" t="n" s="429">
-        <v>0.5246785404403149</v>
-      </c>
-      <c r="F26" t="n" s="430">
-        <v>0.4436211075734607</v>
-      </c>
-      <c r="G26" t="n" s="431">
-        <v>2.9166666666666665</v>
-      </c>
-      <c r="H26" t="n" s="432">
-        <v>1.068570995129105</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="421">
-        <v>33</v>
-      </c>
-      <c r="B27" t="n" s="426">
-        <v>48.0</v>
-      </c>
-      <c r="C27" t="n" s="427">
-        <v>0.6022284199267267</v>
-      </c>
-      <c r="D27" t="n" s="428">
-        <v>0.6117341153846744</v>
-      </c>
-      <c r="E27" t="n" s="429">
-        <v>0.5192577903534709</v>
-      </c>
-      <c r="F27" t="n" s="430">
-        <v>0.45942762234125234</v>
-      </c>
-      <c r="G27" t="n" s="431">
-        <v>2.6875</v>
-      </c>
-      <c r="H27" t="n" s="432">
-        <v>0.9261278345657509</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="421">
-        <v>34</v>
-      </c>
-      <c r="B28" t="n" s="426">
-        <v>48.0</v>
-      </c>
-      <c r="C28" t="n" s="427">
-        <v>0.6305144649535245</v>
-      </c>
-      <c r="D28" t="n" s="428">
-        <v>0.5959060026662512</v>
-      </c>
-      <c r="E28" t="n" s="429">
-        <v>0.5003418424589722</v>
-      </c>
-      <c r="F28" t="n" s="430">
-        <v>0.4276814556986441</v>
-      </c>
-      <c r="G28" t="n" s="431">
-        <v>2.1458333333333335</v>
-      </c>
-      <c r="H28" t="n" s="432">
-        <v>1.2880726709598953</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="436">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32"/>
-      <c r="B32" t="s" s="450">
-        <v>42</v>
-      </c>
-      <c r="C32" t="s" s="450">
-        <v>43</v>
-      </c>
-      <c r="D32" t="s" s="450">
-        <v>44</v>
-      </c>
-      <c r="E32" t="s" s="450">
-        <v>45</v>
-      </c>
-      <c r="F32" t="s" s="450">
-        <v>46</v>
-      </c>
-      <c r="G32" t="s" s="450">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="446">
-        <v>28</v>
-      </c>
-      <c r="B33" t="n" s="451">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="C33" t="n" s="452">
-        <v>0.1875</v>
-      </c>
-      <c r="D33" t="n" s="453">
-        <v>0.2916666666666667</v>
-      </c>
-      <c r="E33" t="n" s="454">
-        <v>0.3125</v>
-      </c>
-      <c r="F33" t="n" s="455">
-        <v>0.041666666666666664</v>
-      </c>
-      <c r="G33" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="446">
-        <v>29</v>
-      </c>
-      <c r="B34" t="n" s="451">
+      <c r="B27" t="n" s="451">
+        <v>0.125</v>
+      </c>
+      <c r="C27" t="n" s="452">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="D27" t="n" s="453">
+        <v>0.5</v>
+      </c>
+      <c r="E27" t="n" s="454">
+        <v>0.125</v>
+      </c>
+      <c r="F27" t="n" s="455">
         <v>0.020833333333333332</v>
       </c>
-      <c r="C34" t="n" s="452">
-        <v>0.5625</v>
-      </c>
-      <c r="D34" t="n" s="453">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="E34" t="n" s="454">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="F34" t="n" s="455">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="G34" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="446">
-        <v>30</v>
-      </c>
-      <c r="B35" t="n" s="451">
-        <v>0.041666666666666664</v>
-      </c>
-      <c r="C35" t="n" s="452">
-        <v>0.4583333333333333</v>
-      </c>
-      <c r="D35" t="n" s="453">
-        <v>0.3958333333333333</v>
-      </c>
-      <c r="E35" t="n" s="454">
-        <v>0.020833333333333332</v>
-      </c>
-      <c r="F35" t="n" s="455">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="G35" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="446">
-        <v>31</v>
-      </c>
-      <c r="B36" t="n" s="451">
-        <v>0.0</v>
-      </c>
-      <c r="C36" t="n" s="452">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="D36" t="n" s="453">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="E36" t="n" s="454">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="F36" t="n" s="455">
-        <v>0.25</v>
-      </c>
-      <c r="G36" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="446">
-        <v>32</v>
-      </c>
-      <c r="B37" t="n" s="451">
-        <v>0.0625</v>
-      </c>
-      <c r="C37" t="n" s="452">
-        <v>0.3541666666666667</v>
-      </c>
-      <c r="D37" t="n" s="453">
-        <v>0.25</v>
-      </c>
-      <c r="E37" t="n" s="454">
-        <v>0.2708333333333333</v>
-      </c>
-      <c r="F37" t="n" s="455">
-        <v>0.0625</v>
-      </c>
-      <c r="G37" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="446">
-        <v>33</v>
-      </c>
-      <c r="B38" t="n" s="451">
-        <v>0.125</v>
-      </c>
-      <c r="C38" t="n" s="452">
-        <v>0.22916666666666666</v>
-      </c>
-      <c r="D38" t="n" s="453">
-        <v>0.5</v>
-      </c>
-      <c r="E38" t="n" s="454">
-        <v>0.125</v>
-      </c>
-      <c r="F38" t="n" s="455">
-        <v>0.020833333333333332</v>
-      </c>
-      <c r="G38" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="446">
-        <v>34</v>
-      </c>
-      <c r="B39" t="n" s="451">
-        <v>0.4583333333333333</v>
-      </c>
-      <c r="C39" t="n" s="452">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="D39" t="n" s="453">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="E39" t="n" s="454">
-        <v>0.10416666666666667</v>
-      </c>
-      <c r="F39" t="n" s="455">
-        <v>0.0625</v>
-      </c>
-      <c r="G39" t="n" s="456">
+      <c r="G27" t="n" s="456">
         <v>0.0</v>
       </c>
     </row>
